--- a/artfynd/A 29563-2023.xlsx
+++ b/artfynd/A 29563-2023.xlsx
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111239104</v>
+        <v>111239103</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>629394.2077373543</v>
+        <v>629353.8298708402</v>
       </c>
       <c r="R4" t="n">
-        <v>7219676.446988125</v>
+        <v>7219719.883700876</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111239106</v>
+        <v>111239108</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>629402.1351804627</v>
+        <v>629398.1156591625</v>
       </c>
       <c r="R5" t="n">
-        <v>7219688.619890384</v>
+        <v>7219693.51345958</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111239103</v>
+        <v>111239104</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>629353.8298708402</v>
+        <v>629394.2077373543</v>
       </c>
       <c r="R6" t="n">
-        <v>7219719.883700876</v>
+        <v>7219676.446988125</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111239108</v>
+        <v>111239106</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>629398.1156591625</v>
+        <v>629402.1351804627</v>
       </c>
       <c r="R7" t="n">
-        <v>7219693.51345958</v>
+        <v>7219688.619890384</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
